--- a/11.05第五次课作业/T1.xlsx
+++ b/11.05第五次课作业/T1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Mworks.syslab\11.05第四次作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LGRepository\Mworks.syslab\11.05第五次课作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF756291-4014-4EFA-919D-6ED335CE81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE078EC-4C3F-4AAD-88CE-1753FF91CF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5F8B2729-7892-4D1F-B7BD-BDBE925337AA}"/>
   </bookViews>
@@ -408,12 +408,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,21 +417,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,13 +429,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF751531-7CEE-4538-8569-CCE848DA5A3C}">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,12 +787,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -854,16 +854,16 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="15">
         <v>350</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="15">
         <v>300</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="16">
         <v>250</v>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -887,24 +887,24 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
+      <c r="B12" s="23"/>
+      <c r="C12" s="12">
         <v>86.466165479642385</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>71.428571816661972</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -918,13 +918,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27">
         <f>SUMPRODUCT(C8:E8,C12:E12)</f>
         <v>48120.30087204033</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -932,17 +932,17 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="9" t="s">
